--- a/PythonResources/Data/Consumption/Sympheny/futu_1690_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1690_hea.xlsx
@@ -359,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>73.97904307616741</v>
+        <v>73.9790430761674</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -463,7 +463,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>13.79854648487666</v>
+        <v>13.79854648487665</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -535,7 +535,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>69.12285596554892</v>
+        <v>69.12285596554891</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -543,7 +543,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>72.37359992638056</v>
+        <v>72.37359992638055</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -567,7 +567,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>77.13834887293672</v>
+        <v>77.1383488729367</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -583,7 +583,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>77.34174017376769</v>
+        <v>77.34174017376768</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>40.78933408984738</v>
+        <v>40.78933408984737</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>57.74378674744487</v>
+        <v>57.74378674744486</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>67.02651882600432</v>
+        <v>67.02651882600431</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>68.60558558231165</v>
+        <v>68.60558558231163</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -783,7 +783,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>67.27357771159583</v>
+        <v>67.27357771159582</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>13.82539179201804</v>
+        <v>13.82539179201803</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -935,7 +935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>47.88429086479989</v>
+        <v>47.88429086479988</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>44.76894572382979</v>
+        <v>44.76894572382978</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>56.13629210038739</v>
+        <v>56.13629210038738</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>23.80358144532086</v>
+        <v>23.80358144532085</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>50.18255394998216</v>
+        <v>50.18255394998215</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>70.33617006560689</v>
+        <v>70.33617006560688</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>72.18808595890793</v>
+        <v>72.18808595890792</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>70.50644433906913</v>
+        <v>70.50644433906912</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>83.80014665274776</v>
+        <v>83.80014665274774</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>23.99882537127705</v>
+        <v>23.99882537127704</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>57.91230259467514</v>
+        <v>57.91230259467513</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>64.52691593726171</v>
+        <v>64.52691593726169</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>33.75006081224053</v>
+        <v>33.75006081224052</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>64.30564730307239</v>
+        <v>64.30564730307238</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>87.25691955375832</v>
+        <v>87.25691955375831</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>78.5418660770859</v>
+        <v>78.54186607708588</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>67.33717412698535</v>
+        <v>67.33717412698533</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>67.91540328626418</v>
+        <v>67.91540328626417</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>87.35627063586452</v>
+        <v>87.3562706358645</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>87.65959916087901</v>
+        <v>87.659599160879</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>75.04611472793337</v>
+        <v>75.04611472793336</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>51.20918179841285</v>
+        <v>51.20918179841284</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>67.9842749803496</v>
+        <v>67.98427498034958</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>73.3650592501719</v>
+        <v>73.36505925017188</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>74.34069273787551</v>
+        <v>74.3406927378755</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>14.93686370614119</v>
+        <v>14.93686370614118</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>14.67151718773721</v>
+        <v>14.6715171877372</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>6.19991782288076</v>
+        <v>6.199917822880759</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>5.328236632590321</v>
+        <v>5.32823663259032</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>3.493553316362567</v>
+        <v>3.493553316362566</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>0.9872801307800204</v>
+        <v>0.9872801307800202</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3055,7 +3055,7 @@
         <v>339</v>
       </c>
       <c r="B339">
-        <v>35.25087760122528</v>
+        <v>35.25087760122527</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>41.1205043635347</v>
+        <v>41.12050436353469</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>0.794137524171034</v>
+        <v>0.7941375241710339</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>11.01771262743462</v>
+        <v>11.01771262743461</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>33.19967340163452</v>
+        <v>33.19967340163451</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3295,7 +3295,7 @@
         <v>369</v>
       </c>
       <c r="B369">
-        <v>5.395437821755367</v>
+        <v>5.395437821755366</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>7.166964329151601</v>
+        <v>7.1669643291516</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>40.06310405604457</v>
+        <v>40.06310405604456</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>73.35450869278009</v>
+        <v>73.35450869278007</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3663,7 +3663,7 @@
         <v>415</v>
       </c>
       <c r="B415">
-        <v>76.87341265398686</v>
+        <v>76.87341265398685</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>441</v>
       </c>
       <c r="B441">
-        <v>30.03128240266672</v>
+        <v>30.03128240266671</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3927,7 +3927,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>32.94001246138057</v>
+        <v>32.94001246138056</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>77.25557728840126</v>
+        <v>77.25557728840124</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4023,7 +4023,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>85.33408046910124</v>
+        <v>85.33408046910122</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>86.06998184717987</v>
+        <v>86.06998184717986</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>87.53504396944794</v>
+        <v>87.53504396944793</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4175,7 +4175,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>60.30171077288109</v>
+        <v>60.30171077288108</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4191,7 +4191,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>72.60805675730964</v>
+        <v>72.60805675730963</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>75.12817461875855</v>
+        <v>75.12817461875854</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>6.524318155575004</v>
+        <v>6.524318155575003</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>55.12519701700575</v>
+        <v>55.12519701700574</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>510</v>
       </c>
       <c r="B510">
-        <v>68.67445727639706</v>
+        <v>68.67445727639705</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>66.20591991775255</v>
+        <v>66.20591991775254</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>67.87701098019954</v>
+        <v>67.87701098019953</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4679,7 +4679,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>17.30707573131482</v>
+        <v>17.30707573131481</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>12.53860478256767</v>
+        <v>12.53860478256766</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4727,7 +4727,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>57.5327755996087</v>
+        <v>57.53277559960869</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4743,7 +4743,7 @@
         <v>550</v>
       </c>
       <c r="B550">
-        <v>45.31405785573989</v>
+        <v>45.31405785573988</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>63.92963716046988</v>
+        <v>63.92963716046987</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4967,7 +4967,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>51.14792995133263</v>
+        <v>51.14792995133262</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>62.69375659043499</v>
+        <v>62.69375659043498</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>6.404715864697308</v>
+        <v>6.404715864697307</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>35.29659668325645</v>
+        <v>35.29659668325644</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5167,7 +5167,7 @@
         <v>603</v>
       </c>
       <c r="B603">
-        <v>39.23517837182627</v>
+        <v>39.23517837182626</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5359,7 +5359,7 @@
         <v>627</v>
       </c>
       <c r="B627">
-        <v>59.38205385356179</v>
+        <v>59.38205385356178</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5375,7 +5375,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>73.26834580741365</v>
+        <v>73.26834580741364</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5391,7 +5391,7 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>84.34584492673518</v>
+        <v>84.34584492673517</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>4.346419345970948</v>
+        <v>4.346419345970947</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>51.219439284766</v>
+        <v>51.21943928476599</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5671,7 +5671,7 @@
         <v>666</v>
       </c>
       <c r="B666">
-        <v>8.842041157724386</v>
+        <v>8.842041157724385</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5719,7 +5719,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>53.49454975789402</v>
+        <v>53.49454975789401</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5727,7 +5727,7 @@
         <v>673</v>
       </c>
       <c r="B673">
-        <v>57.54010237557523</v>
+        <v>57.54010237557522</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>7.900843517063476</v>
+        <v>7.900843517063475</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5863,7 +5863,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>3.461051738175024</v>
+        <v>3.461051738175023</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>691</v>
       </c>
       <c r="B691">
-        <v>28.95330850826256</v>
+        <v>28.95330850826255</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>14.75513035506729</v>
+        <v>14.75513035506728</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6119,7 +6119,7 @@
         <v>722</v>
       </c>
       <c r="B722">
-        <v>26.52653377262729</v>
+        <v>26.52653377262728</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6151,7 +6151,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>40.86084342328075</v>
+        <v>40.86084342328074</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>5.30845433748068</v>
+        <v>5.308454337480679</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>49.46159919487525</v>
+        <v>49.46159919487524</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>7.343862008087589</v>
+        <v>7.343862008087588</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>2.245806299972276</v>
+        <v>2.245806299972275</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>57.45100877982218</v>
+        <v>57.45100877982217</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6831,7 +6831,7 @@
         <v>811</v>
       </c>
       <c r="B811">
-        <v>71.84372748848085</v>
+        <v>71.84372748848084</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>58.85980126266727</v>
+        <v>58.85980126266726</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>68.87110794333883</v>
+        <v>68.87110794333881</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>74.46524792930659</v>
+        <v>74.46524792930657</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6975,7 +6975,7 @@
         <v>829</v>
       </c>
       <c r="B829">
-        <v>7.282111940241643</v>
+        <v>7.282111940241642</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>42.10639533759147</v>
+        <v>42.10639533759146</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>844</v>
       </c>
       <c r="B844">
-        <v>51.68542223623754</v>
+        <v>51.68542223623753</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7111,7 +7111,7 @@
         <v>846</v>
       </c>
       <c r="B846">
-        <v>52.97757244569541</v>
+        <v>52.9775724456954</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>5.747152375252847</v>
+        <v>5.747152375252846</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7463,7 +7463,7 @@
         <v>890</v>
       </c>
       <c r="B890">
-        <v>30.37505473101648</v>
+        <v>30.37505473101647</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7495,7 +7495,7 @@
         <v>894</v>
       </c>
       <c r="B894">
-        <v>49.30890918373269</v>
+        <v>49.30890918373268</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>54.60499592338186</v>
+        <v>54.60499592338185</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>60.34508528660297</v>
+        <v>60.34508528660296</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>58.52071807093609</v>
+        <v>58.52071807093608</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>937</v>
       </c>
       <c r="B937">
-        <v>51.32904785322534</v>
+        <v>51.32904785322533</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>944</v>
       </c>
       <c r="B944">
-        <v>7.923966822013856</v>
+        <v>7.923966822013855</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7903,7 +7903,7 @@
         <v>945</v>
       </c>
       <c r="B945">
-        <v>9.966965032522094</v>
+        <v>9.966965032522092</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>49.01583814507134</v>
+        <v>49.01583814507133</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>964</v>
       </c>
       <c r="B964">
-        <v>79.22472159716683</v>
+        <v>79.22472159716682</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>83.34969646632527</v>
+        <v>83.34969646632526</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>86.5640996183629</v>
+        <v>86.56409961836289</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>85.56062438198646</v>
+        <v>85.56062438198644</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8359,7 +8359,7 @@
         <v>1002</v>
       </c>
       <c r="B1002">
-        <v>24.50923789220965</v>
+        <v>24.50923789220964</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>73.48697680225501</v>
+        <v>73.486976802255</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>83.54781248846034</v>
+        <v>83.54781248846032</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>60.35798041230407</v>
+        <v>60.35798041230406</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>1041</v>
       </c>
       <c r="B1041">
-        <v>7.495467656387103</v>
+        <v>7.495467656387102</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>7.960336937911729</v>
+        <v>7.960336937911728</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>6.489706465909098</v>
+        <v>6.489706465909097</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>1045</v>
       </c>
       <c r="B1045">
-        <v>4.841592172893157</v>
+        <v>4.841592172893156</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>1046</v>
       </c>
       <c r="B1046">
-        <v>4.017535026385186</v>
+        <v>4.017535026385185</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>8.185913716369367</v>
+        <v>8.185913716369365</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>24.36783111605555</v>
+        <v>24.36783111605554</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8807,7 +8807,7 @@
         <v>1058</v>
       </c>
       <c r="B1058">
-        <v>35.32971371062518</v>
+        <v>35.32971371062517</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
@@ -8823,7 +8823,7 @@
         <v>1060</v>
       </c>
       <c r="B1060">
-        <v>44.6619747947184</v>
+        <v>44.66197479471839</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
@@ -8831,7 +8831,7 @@
         <v>1061</v>
       </c>
       <c r="B1061">
-        <v>47.57891084251477</v>
+        <v>47.57891084251476</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
@@ -8871,7 +8871,7 @@
         <v>1066</v>
       </c>
       <c r="B1066">
-        <v>5.257547898065204</v>
+        <v>5.257547898065203</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -8927,7 +8927,7 @@
         <v>1073</v>
       </c>
       <c r="B1073">
-        <v>0.8535518158388485</v>
+        <v>0.8535518158388484</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
@@ -8935,7 +8935,7 @@
         <v>1074</v>
       </c>
       <c r="B1074">
-        <v>0.5702840034207253</v>
+        <v>0.5702840034207252</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
@@ -9023,7 +9023,7 @@
         <v>1085</v>
       </c>
       <c r="B1085">
-        <v>50.78628028962453</v>
+        <v>50.78628028962452</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>52.42220282743216</v>
+        <v>52.42220282743215</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>6.392260345554201</v>
+        <v>6.3922603455542</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>7.486118690253806</v>
+        <v>7.486118690253805</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>1113</v>
       </c>
       <c r="B1113">
-        <v>7.834228469975752</v>
+        <v>7.834228469975751</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>54.97719614248177</v>
+        <v>54.97719614248176</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9335,7 +9335,7 @@
         <v>1124</v>
       </c>
       <c r="B1124">
-        <v>42.8886019397786</v>
+        <v>42.88860193977859</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>33.24568555470435</v>
+        <v>33.24568555470434</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9391,7 +9391,7 @@
         <v>1131</v>
       </c>
       <c r="B1131">
-        <v>50.34022616878196</v>
+        <v>50.34022616878195</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
@@ -9399,7 +9399,7 @@
         <v>1132</v>
       </c>
       <c r="B1132">
-        <v>52.12151194176562</v>
+        <v>52.12151194176561</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>6.113344638060198</v>
+        <v>6.113344638060197</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>5.721362123850649</v>
+        <v>5.721362123850648</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>24.92727442175619</v>
+        <v>24.92727442175618</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9671,7 +9671,7 @@
         <v>1166</v>
       </c>
       <c r="B1166">
-        <v>0.7501387691368062</v>
+        <v>0.7501387691368061</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
@@ -9679,7 +9679,7 @@
         <v>1167</v>
       </c>
       <c r="B1167">
-        <v>0.4166151350090354</v>
+        <v>0.4166151350090353</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -9927,7 +9927,7 @@
         <v>1198</v>
       </c>
       <c r="B1198">
-        <v>17.32876298817576</v>
+        <v>17.32876298817575</v>
       </c>
     </row>
     <row r="1199" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>33.83680983968429</v>
+        <v>33.83680983968428</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>49.94077034308655</v>
+        <v>49.94077034308654</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10167,7 +10167,7 @@
         <v>1228</v>
       </c>
       <c r="B1228">
-        <v>47.19147092940447</v>
+        <v>47.19147092940446</v>
       </c>
     </row>
     <row r="1229" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>14.09355179239317</v>
+        <v>14.09355179239316</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10263,7 +10263,7 @@
         <v>1240</v>
       </c>
       <c r="B1240">
-        <v>8.904934202621112</v>
+        <v>8.90493420262111</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>9.199294753852566</v>
+        <v>9.199294753852564</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10543,7 +10543,7 @@
         <v>1275</v>
       </c>
       <c r="B1275">
-        <v>55.41035513762324</v>
+        <v>55.41035513762323</v>
       </c>
     </row>
     <row r="1276" spans="1:2">
@@ -10575,7 +10575,7 @@
         <v>1279</v>
       </c>
       <c r="B1279">
-        <v>57.68282797140331</v>
+        <v>57.6828279714033</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>42.07591594957069</v>
+        <v>42.07591594957068</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10735,7 +10735,7 @@
         <v>1299</v>
       </c>
       <c r="B1299">
-        <v>49.67290341375008</v>
+        <v>49.67290341375007</v>
       </c>
     </row>
     <row r="1300" spans="1:2">
@@ -10759,7 +10759,7 @@
         <v>1302</v>
       </c>
       <c r="B1302">
-        <v>55.10702661260874</v>
+        <v>55.10702661260873</v>
       </c>
     </row>
     <row r="1303" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>5.041056321806068</v>
+        <v>5.041056321806067</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>3.4440243108288</v>
+        <v>3.444024310828799</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>2.487973829928532</v>
+        <v>2.487973829928531</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>1.514415285178636</v>
+        <v>1.514415285178635</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>2.062440543213032</v>
+        <v>2.062440543213031</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10895,7 +10895,7 @@
         <v>1319</v>
       </c>
       <c r="B1319">
-        <v>8.906370250710552</v>
+        <v>8.90637025071055</v>
       </c>
     </row>
     <row r="1320" spans="1:2">
@@ -10975,7 +10975,7 @@
         <v>1329</v>
       </c>
       <c r="B1329">
-        <v>2.607373901789551</v>
+        <v>2.60737390178955</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>14.27719010521837</v>
+        <v>14.27719010521836</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>28.91298193334276</v>
+        <v>28.91298193334275</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11519,7 +11519,7 @@
         <v>1397</v>
       </c>
       <c r="B1397">
-        <v>37.20712678428976</v>
+        <v>37.20712678428975</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>3.722705561491873</v>
+        <v>3.722705561491872</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>56.18201118241856</v>
+        <v>56.18201118241855</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1435</v>
       </c>
       <c r="B1435">
-        <v>68.91418938602204</v>
+        <v>68.91418938602203</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>80.80701213489944</v>
+        <v>80.80701213489942</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>82.12905559030077</v>
+        <v>82.12905559030075</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11919,7 +11919,7 @@
         <v>1447</v>
       </c>
       <c r="B1447">
-        <v>82.22107989644043</v>
+        <v>82.22107989644041</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>7.172386143366836</v>
+        <v>7.172386143366835</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12007,7 +12007,7 @@
         <v>1458</v>
       </c>
       <c r="B1458">
-        <v>4.314005689095003</v>
+        <v>4.314005689095002</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>52.24606713319669</v>
+        <v>52.24606713319668</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>58.97468510982252</v>
+        <v>58.97468510982251</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12079,7 +12079,7 @@
         <v>1467</v>
       </c>
       <c r="B1467">
-        <v>63.427606471243</v>
+        <v>63.42760647124299</v>
       </c>
     </row>
     <row r="1468" spans="1:2">
@@ -12111,7 +12111,7 @@
         <v>1471</v>
       </c>
       <c r="B1471">
-        <v>73.70414244190307</v>
+        <v>73.70414244190306</v>
       </c>
     </row>
     <row r="1472" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>54.33771513612271</v>
+        <v>54.3377151361227</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1494</v>
       </c>
       <c r="B1494">
-        <v>69.12285596554892</v>
+        <v>69.12285596554891</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>7.447316084735044</v>
+        <v>7.447316084735043</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>7.371469299929488</v>
+        <v>7.371469299929487</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12535,7 +12535,7 @@
         <v>1524</v>
       </c>
       <c r="B1524">
-        <v>0.700844220433968</v>
+        <v>0.7008442204339679</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
@@ -12607,7 +12607,7 @@
         <v>1533</v>
       </c>
       <c r="B1533">
-        <v>0.89275299797019</v>
+        <v>0.8927529979701899</v>
       </c>
     </row>
     <row r="1534" spans="1:2">
@@ -12767,7 +12767,7 @@
         <v>1553</v>
       </c>
       <c r="B1553">
-        <v>0.4592511097134879</v>
+        <v>0.4592511097134878</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>45.11271805217955</v>
+        <v>45.11271805217954</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>3.152154863425966</v>
+        <v>3.152154863425965</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13183,7 +13183,7 @@
         <v>1605</v>
       </c>
       <c r="B1605">
-        <v>13.45213651717895</v>
+        <v>13.45213651717894</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>43.93076255325834</v>
+        <v>43.93076255325833</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>0.9673249237575694</v>
+        <v>0.9673249237575692</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>0.5617468440645202</v>
+        <v>0.5617468440645201</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>0.1936323283145895</v>
+        <v>0.1936323283145894</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>5.914349402809145</v>
+        <v>5.914349402809144</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>39.13084508206283</v>
+        <v>39.13084508206282</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13687,7 +13687,7 @@
         <v>1668</v>
       </c>
       <c r="B1668">
-        <v>0.2128393249753381</v>
+        <v>0.212839324975338</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -13711,7 +13711,7 @@
         <v>1671</v>
       </c>
       <c r="B1671">
-        <v>0.4869990756539441</v>
+        <v>0.486999075653944</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13775,7 +13775,7 @@
         <v>1679</v>
       </c>
       <c r="B1679">
-        <v>6.26140412679191</v>
+        <v>6.261404126791909</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>0.979012596779384</v>
+        <v>0.9790125967793838</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>0.7201781168544569</v>
+        <v>0.7201781168544568</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14191,7 +14191,7 @@
         <v>1731</v>
       </c>
       <c r="B1731">
-        <v>15.89763849218468</v>
+        <v>15.89763849218467</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>0.7447433313150509</v>
+        <v>0.7447433313150508</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14511,7 +14511,7 @@
         <v>1771</v>
       </c>
       <c r="B1771">
-        <v>0.0619604928517043</v>
+        <v>0.0619604928517042</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -14679,7 +14679,7 @@
         <v>1792</v>
       </c>
       <c r="B1792">
-        <v>0.5784841310824697</v>
+        <v>0.5784841310824695</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -14719,7 +14719,7 @@
         <v>1797</v>
       </c>
       <c r="B1797">
-        <v>0.9199617131995094</v>
+        <v>0.9199617131995091</v>
       </c>
     </row>
     <row r="1798" spans="1:2">
@@ -14735,7 +14735,7 @@
         <v>1799</v>
       </c>
       <c r="B1799">
-        <v>4.872335324848732</v>
+        <v>4.872335324848731</v>
       </c>
     </row>
     <row r="1800" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>4.105427030879723</v>
+        <v>4.105427030879722</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>2.362296176419388</v>
+        <v>2.362296176419387</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15111,7 +15111,7 @@
         <v>1846</v>
       </c>
       <c r="B1846">
-        <v>1.15308214019229</v>
+        <v>1.153082140192289</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
@@ -15151,7 +15151,7 @@
         <v>1851</v>
       </c>
       <c r="B1851">
-        <v>24.46170176973878</v>
+        <v>24.46170176973877</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>31.99046229611781</v>
+        <v>31.9904622961178</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>6.052034176772246</v>
+        <v>6.052034176772245</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>0.71652352100235</v>
+        <v>0.7165235210023498</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>0.306895199555001</v>
+        <v>0.3068951995550009</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15503,7 +15503,7 @@
         <v>1895</v>
       </c>
       <c r="B1895">
-        <v>2.133117554896602</v>
+        <v>2.133117554896601</v>
       </c>
     </row>
     <row r="1896" spans="1:2">
@@ -15511,7 +15511,7 @@
         <v>1896</v>
       </c>
       <c r="B1896">
-        <v>5.808257686813738</v>
+        <v>5.808257686813737</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -15815,7 +15815,7 @@
         <v>1934</v>
       </c>
       <c r="B1934">
-        <v>0.655368387364887</v>
+        <v>0.6553683873648869</v>
       </c>
     </row>
     <row r="1935" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>1.876794693773003</v>
+        <v>1.876794693773002</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>6.999298387933445</v>
+        <v>6.999298387933444</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -15991,7 +15991,7 @@
         <v>1956</v>
       </c>
       <c r="B1956">
-        <v>5.201307565746092</v>
+        <v>5.201307565746091</v>
       </c>
     </row>
     <row r="1957" spans="1:2">
@@ -16231,7 +16231,7 @@
         <v>1986</v>
       </c>
       <c r="B1986">
-        <v>0.8151976090092383</v>
+        <v>0.8151976090092382</v>
       </c>
     </row>
     <row r="1987" spans="1:2">
@@ -16255,7 +16255,7 @@
         <v>1989</v>
       </c>
       <c r="B1989">
-        <v>0.5171502241114233</v>
+        <v>0.5171502241114232</v>
       </c>
     </row>
     <row r="1990" spans="1:2">
@@ -16367,7 +16367,7 @@
         <v>2003</v>
       </c>
       <c r="B2003">
-        <v>0.5115203294587389</v>
+        <v>0.5115203294587388</v>
       </c>
     </row>
     <row r="2004" spans="1:2">
@@ -16447,7 +16447,7 @@
         <v>2013</v>
       </c>
       <c r="B2013">
-        <v>2.243995120953349</v>
+        <v>2.243995120953348</v>
       </c>
     </row>
     <row r="2014" spans="1:2">
@@ -16527,7 +16527,7 @@
         <v>2023</v>
       </c>
       <c r="B2023">
-        <v>0.7723154546323102</v>
+        <v>0.7723154546323101</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>1.808937025481355</v>
+        <v>1.808937025481354</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16551,7 +16551,7 @@
         <v>2026</v>
       </c>
       <c r="B2026">
-        <v>1.922018485748835</v>
+        <v>1.922018485748834</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>0.7985218669094077</v>
+        <v>0.7985218669094076</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16815,7 +16815,7 @@
         <v>2059</v>
       </c>
       <c r="B2059">
-        <v>0.0890774768459226</v>
+        <v>0.0890774768459225</v>
       </c>
     </row>
     <row r="2060" spans="1:2">
@@ -16831,7 +16831,7 @@
         <v>2061</v>
       </c>
       <c r="B2061">
-        <v>0.1523474110983658</v>
+        <v>0.1523474110983657</v>
       </c>
     </row>
     <row r="2062" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>33.73980332588738</v>
+        <v>33.73980332588737</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>3.685251082750953</v>
+        <v>3.685251082750952</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>7.080185994603976</v>
+        <v>7.080185994603975</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17263,7 +17263,7 @@
         <v>2115</v>
       </c>
       <c r="B2115">
-        <v>36.71066444479744</v>
+        <v>36.71066444479743</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>2.349275030171664</v>
+        <v>2.349275030171663</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17303,7 +17303,7 @@
         <v>2120</v>
       </c>
       <c r="B2120">
-        <v>3.439305867106352</v>
+        <v>3.439305867106351</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>1.75708689732139</v>
+        <v>1.757086897321389</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>1.202789919059641</v>
+        <v>1.20278991905964</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>0.2573116828080426</v>
+        <v>0.2573116828080425</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17519,7 +17519,7 @@
         <v>2147</v>
       </c>
       <c r="B2147">
-        <v>2.174379026429733</v>
+        <v>2.174379026429732</v>
       </c>
     </row>
     <row r="2148" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>0.3639385465200452</v>
+        <v>0.3639385465200451</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>1.37393168279632</v>
+        <v>1.373931682796319</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>1.007490309606107</v>
+        <v>1.007490309606106</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18327,7 +18327,7 @@
         <v>2248</v>
       </c>
       <c r="B2248">
-        <v>0.4422735044438362</v>
+        <v>0.4422735044438361</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
@@ -18375,7 +18375,7 @@
         <v>2254</v>
       </c>
       <c r="B2254">
-        <v>3.55911330771111</v>
+        <v>3.559113307711109</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>39.13318965037212</v>
+        <v>39.13318965037211</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18615,7 +18615,7 @@
         <v>2284</v>
       </c>
       <c r="B2284">
-        <v>22.5495011637851</v>
+        <v>22.54950116378509</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>1.66345949260025</v>
+        <v>1.663459492600249</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -18727,7 +18727,7 @@
         <v>2298</v>
       </c>
       <c r="B2298">
-        <v>8.152210546923312</v>
+        <v>8.15221054692331</v>
       </c>
     </row>
     <row r="2299" spans="1:2">
@@ -18959,7 +18959,7 @@
         <v>2327</v>
       </c>
       <c r="B2327">
-        <v>0.8259709003904293</v>
+        <v>0.8259709003904292</v>
       </c>
     </row>
     <row r="2328" spans="1:2">
@@ -19223,7 +19223,7 @@
         <v>2360</v>
       </c>
       <c r="B2360">
-        <v>1.080837198451882</v>
+        <v>1.080837198451881</v>
       </c>
     </row>
     <row r="2361" spans="1:2">
@@ -19551,7 +19551,7 @@
         <v>2401</v>
       </c>
       <c r="B2401">
-        <v>0.5408332947456467</v>
+        <v>0.5408332947456466</v>
       </c>
     </row>
     <row r="2402" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>5.78929599061235</v>
+        <v>5.789295990612349</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19631,7 +19631,7 @@
         <v>2411</v>
       </c>
       <c r="B2411">
-        <v>1.447756277435113</v>
+        <v>1.447756277435112</v>
       </c>
     </row>
     <row r="2412" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>0.9143494028091446</v>
+        <v>0.9143494028091445</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -19951,7 +19951,7 @@
         <v>2451</v>
       </c>
       <c r="B2451">
-        <v>6.747022837853759</v>
+        <v>6.747022837853758</v>
       </c>
     </row>
     <row r="2452" spans="1:2">
@@ -20111,7 +20111,7 @@
         <v>2471</v>
       </c>
       <c r="B2471">
-        <v>0.1973906713143826</v>
+        <v>0.1973906713143825</v>
       </c>
     </row>
     <row r="2472" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>0.3260473919315199</v>
+        <v>0.3260473919315198</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>0.9013722172172204</v>
+        <v>0.9013722172172202</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>0.0984197023453303</v>
+        <v>0.09841970234533021</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -21855,7 +21855,7 @@
         <v>2689</v>
       </c>
       <c r="B2689">
-        <v>0.9223473114542128</v>
+        <v>0.9223473114542126</v>
       </c>
     </row>
     <row r="2690" spans="1:2">
@@ -23007,7 +23007,7 @@
         <v>2833</v>
       </c>
       <c r="B2833">
-        <v>0.9387329132257686</v>
+        <v>0.9387329132257684</v>
       </c>
     </row>
     <row r="2834" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>12.38805419000734</v>
+        <v>12.38805419000733</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23263,7 +23263,7 @@
         <v>2865</v>
       </c>
       <c r="B2865">
-        <v>0.8772876392600308</v>
+        <v>0.8772876392600307</v>
       </c>
     </row>
     <row r="2866" spans="1:2">
@@ -23279,7 +23279,7 @@
         <v>2867</v>
       </c>
       <c r="B2867">
-        <v>0.2401652686201219</v>
+        <v>0.2401652686201218</v>
       </c>
     </row>
     <row r="2868" spans="1:2">
@@ -23383,7 +23383,7 @@
         <v>2880</v>
       </c>
       <c r="B2880">
-        <v>0.8286144011591546</v>
+        <v>0.8286144011591545</v>
       </c>
     </row>
     <row r="2881" spans="1:2">
@@ -23447,7 +23447,7 @@
         <v>2888</v>
       </c>
       <c r="B2888">
-        <v>0.8314571902341698</v>
+        <v>0.8314571902341696</v>
       </c>
     </row>
     <row r="2889" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>0.485278748657002</v>
+        <v>0.4852787486570019</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -23831,7 +23831,7 @@
         <v>2936</v>
       </c>
       <c r="B2936">
-        <v>0.4482169851078883</v>
+        <v>0.4482169851078882</v>
       </c>
     </row>
     <row r="2937" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>0.6233708913638414</v>
+        <v>0.6233708913638413</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25511,7 +25511,7 @@
         <v>3146</v>
       </c>
       <c r="B3146">
-        <v>0.682685538878511</v>
+        <v>0.6826855388785109</v>
       </c>
     </row>
     <row r="3147" spans="1:2">
@@ -25535,7 +25535,7 @@
         <v>3149</v>
       </c>
       <c r="B3149">
-        <v>6.061383142905542</v>
+        <v>6.061383142905541</v>
       </c>
     </row>
     <row r="3150" spans="1:2">
@@ -25543,7 +25543,7 @@
         <v>3150</v>
       </c>
       <c r="B3150">
-        <v>7.912918043856323</v>
+        <v>7.912918043856322</v>
       </c>
     </row>
     <row r="3151" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>0.1161118148072384</v>
+        <v>0.1161118148072383</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -27999,7 +27999,7 @@
         <v>3457</v>
       </c>
       <c r="B3457">
-        <v>0.4736672741052395</v>
+        <v>0.4736672741052394</v>
       </c>
     </row>
     <row r="3458" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>4.832360435175325</v>
+        <v>4.832360435175324</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28223,7 +28223,7 @@
         <v>3485</v>
       </c>
       <c r="B3485">
-        <v>3.249981976131123</v>
+        <v>3.249981976131122</v>
       </c>
     </row>
     <row r="3486" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>0.2096337139544603</v>
+        <v>0.2096337139544602</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -51063,7 +51063,7 @@
         <v>6340</v>
       </c>
       <c r="B6340">
-        <v>0.9119550124232814</v>
+        <v>0.9119550124232813</v>
       </c>
     </row>
     <row r="6341" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>0.4380679350390459</v>
+        <v>0.4380679350390458</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53143,7 +53143,7 @@
         <v>6600</v>
       </c>
       <c r="B6600">
-        <v>0.3602546435640721</v>
+        <v>0.360254643564072</v>
       </c>
     </row>
     <row r="6601" spans="1:2">
@@ -53183,7 +53183,7 @@
         <v>6605</v>
       </c>
       <c r="B6605">
-        <v>16.75780199065573</v>
+        <v>16.75780199065572</v>
       </c>
     </row>
     <row r="6606" spans="1:2">
@@ -53415,7 +53415,7 @@
         <v>6634</v>
       </c>
       <c r="B6634">
-        <v>0.9180801971313036</v>
+        <v>0.9180801971313034</v>
       </c>
     </row>
     <row r="6635" spans="1:2">
@@ -53751,7 +53751,7 @@
         <v>6676</v>
       </c>
       <c r="B6676">
-        <v>0.2176521375722347</v>
+        <v>0.2176521375722346</v>
       </c>
     </row>
     <row r="6677" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>5.875810561225178</v>
+        <v>5.875810561225177</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54567,7 +54567,7 @@
         <v>6778</v>
       </c>
       <c r="B6778">
-        <v>0.8833864475745734</v>
+        <v>0.8833864475745733</v>
       </c>
     </row>
     <row r="6779" spans="1:2">
@@ -55079,7 +55079,7 @@
         <v>6842</v>
       </c>
       <c r="B6842">
-        <v>18.23068910965605</v>
+        <v>18.23068910965604</v>
       </c>
     </row>
     <row r="6843" spans="1:2">
@@ -55143,7 +55143,7 @@
         <v>6850</v>
       </c>
       <c r="B6850">
-        <v>2.313611215476965</v>
+        <v>2.313611215476964</v>
       </c>
     </row>
     <row r="6851" spans="1:2">
@@ -55303,7 +55303,7 @@
         <v>6870</v>
       </c>
       <c r="B6870">
-        <v>28.19771275638588</v>
+        <v>28.19771275638587</v>
       </c>
     </row>
     <row r="6871" spans="1:2">
@@ -55343,7 +55343,7 @@
         <v>6875</v>
       </c>
       <c r="B6875">
-        <v>2.633252074503348</v>
+        <v>2.633252074503347</v>
       </c>
     </row>
     <row r="6876" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>2.719127750251895</v>
+        <v>2.719127750251894</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55551,7 +55551,7 @@
         <v>6901</v>
       </c>
       <c r="B6901">
-        <v>0.9281999400962798</v>
+        <v>0.9281999400962796</v>
       </c>
     </row>
     <row r="6902" spans="1:2">
@@ -55927,7 +55927,7 @@
         <v>6948</v>
       </c>
       <c r="B6948">
-        <v>0.7571255826984927</v>
+        <v>0.7571255826984926</v>
       </c>
     </row>
     <row r="6949" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>0.1738060725491495</v>
+        <v>0.1738060725491494</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56071,7 +56071,7 @@
         <v>6966</v>
       </c>
       <c r="B6966">
-        <v>8.007755831967135</v>
+        <v>8.007755831967133</v>
       </c>
     </row>
     <row r="6967" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>1.223709329799288</v>
+        <v>1.223709329799287</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>0.2078245864328038</v>
+        <v>0.2078245864328037</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>0.4116505116141122</v>
+        <v>0.4116505116141121</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -57775,7 +57775,7 @@
         <v>7179</v>
       </c>
       <c r="B7179">
-        <v>20.24162534853474</v>
+        <v>20.24162534853473</v>
       </c>
     </row>
     <row r="7180" spans="1:2">
@@ -57871,7 +57871,7 @@
         <v>7191</v>
       </c>
       <c r="B7191">
-        <v>0.6799746317708936</v>
+        <v>0.6799746317708935</v>
       </c>
     </row>
     <row r="7192" spans="1:2">
@@ -57991,7 +57991,7 @@
         <v>7206</v>
       </c>
       <c r="B7206">
-        <v>14.23533956089753</v>
+        <v>14.23533956089752</v>
       </c>
     </row>
     <row r="7207" spans="1:2">
@@ -58007,7 +58007,7 @@
         <v>7208</v>
       </c>
       <c r="B7208">
-        <v>0.9535681692028058</v>
+        <v>0.9535681692028056</v>
       </c>
     </row>
     <row r="7209" spans="1:2">
@@ -58223,7 +58223,7 @@
         <v>7235</v>
       </c>
       <c r="B7235">
-        <v>1.236712891784692</v>
+        <v>1.236712891784691</v>
       </c>
     </row>
     <row r="7236" spans="1:2">
@@ -58231,7 +58231,7 @@
         <v>7236</v>
       </c>
       <c r="B7236">
-        <v>0.9536179912793784</v>
+        <v>0.9536179912793782</v>
       </c>
     </row>
     <row r="7237" spans="1:2">
@@ -58367,7 +58367,7 @@
         <v>7253</v>
       </c>
       <c r="B7253">
-        <v>22.68196927326003</v>
+        <v>22.68196927326002</v>
       </c>
     </row>
     <row r="7254" spans="1:2">
@@ -58503,7 +58503,7 @@
         <v>7270</v>
       </c>
       <c r="B7270">
-        <v>3.14863801096203</v>
+        <v>3.148638010962029</v>
       </c>
     </row>
     <row r="7271" spans="1:2">
@@ -58511,7 +58511,7 @@
         <v>7271</v>
       </c>
       <c r="B7271">
-        <v>7.440458222430369</v>
+        <v>7.440458222430368</v>
       </c>
     </row>
     <row r="7272" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>1.415336759138395</v>
+        <v>1.415336759138394</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58695,7 +58695,7 @@
         <v>7294</v>
       </c>
       <c r="B7294">
-        <v>0.5594257214383224</v>
+        <v>0.5594257214383223</v>
       </c>
     </row>
     <row r="7295" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>0.9058972340541516</v>
+        <v>0.9058972340541512</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>7.15401058924277</v>
+        <v>7.154010589242769</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>5.992013228054401</v>
+        <v>5.9920132280544</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59167,7 +59167,7 @@
         <v>7353</v>
       </c>
       <c r="B7353">
-        <v>7.4460558792688</v>
+        <v>7.446055879268799</v>
       </c>
     </row>
     <row r="7354" spans="1:2">
@@ -59199,7 +59199,7 @@
         <v>7357</v>
       </c>
       <c r="B7357">
-        <v>2.444282799484899</v>
+        <v>2.444282799484898</v>
       </c>
     </row>
     <row r="7358" spans="1:2">
@@ -59223,7 +59223,7 @@
         <v>7360</v>
       </c>
       <c r="B7360">
-        <v>0.91699290357787</v>
+        <v>0.9169929035778698</v>
       </c>
     </row>
     <row r="7361" spans="1:2">
@@ -59279,7 +59279,7 @@
         <v>7367</v>
       </c>
       <c r="B7367">
-        <v>4.013344110532329</v>
+        <v>4.013344110532328</v>
       </c>
     </row>
     <row r="7368" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>6.207449748574357</v>
+        <v>6.207449748574356</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59687,7 +59687,7 @@
         <v>7418</v>
       </c>
       <c r="B7418">
-        <v>3.513101154641279</v>
+        <v>3.513101154641278</v>
       </c>
     </row>
     <row r="7419" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>0.9261689577983566</v>
+        <v>0.9261689577983564</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59895,7 +59895,7 @@
         <v>7444</v>
       </c>
       <c r="B7444">
-        <v>2.04199297684563</v>
+        <v>2.041992976845629</v>
       </c>
     </row>
     <row r="7445" spans="1:2">
@@ -60215,7 +60215,7 @@
         <v>7484</v>
       </c>
       <c r="B7484">
-        <v>7.394387455152805</v>
+        <v>7.394387455152804</v>
       </c>
     </row>
     <row r="7485" spans="1:2">
@@ -60231,7 +60231,7 @@
         <v>7486</v>
       </c>
       <c r="B7486">
-        <v>5.769982609164567</v>
+        <v>5.769982609164566</v>
       </c>
     </row>
     <row r="7487" spans="1:2">
@@ -60671,7 +60671,7 @@
         <v>7541</v>
       </c>
       <c r="B7541">
-        <v>59.98343562489487</v>
+        <v>59.98343562489486</v>
       </c>
     </row>
     <row r="7542" spans="1:2">
@@ -60679,7 +60679,7 @@
         <v>7542</v>
       </c>
       <c r="B7542">
-        <v>61.37728148476823</v>
+        <v>61.37728148476822</v>
       </c>
     </row>
     <row r="7543" spans="1:2">
@@ -60799,7 +60799,7 @@
         <v>7557</v>
       </c>
       <c r="B7557">
-        <v>9.880919375571125</v>
+        <v>9.88091937557112</v>
       </c>
     </row>
     <row r="7558" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>41.74474567588337</v>
+        <v>41.74474567588336</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>7.086838707181589</v>
+        <v>7.086838707181588</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61055,7 +61055,7 @@
         <v>7589</v>
       </c>
       <c r="B7589">
-        <v>44.00725409434895</v>
+        <v>44.00725409434894</v>
       </c>
     </row>
     <row r="7590" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>6.578565604831218</v>
+        <v>6.578565604831217</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>5.597744759743294</v>
+        <v>5.597744759743293</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>60.4957238004749</v>
+        <v>60.49572380047489</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>7.585206008425207</v>
+        <v>7.585206008425206</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61343,7 +61343,7 @@
         <v>7625</v>
       </c>
       <c r="B7625">
-        <v>7.312268950119896</v>
+        <v>7.312268950119895</v>
       </c>
     </row>
     <row r="7626" spans="1:2">
@@ -61359,7 +61359,7 @@
         <v>7627</v>
       </c>
       <c r="B7627">
-        <v>39.9127586132113</v>
+        <v>39.91275861321129</v>
       </c>
     </row>
     <row r="7628" spans="1:2">
@@ -61415,7 +61415,7 @@
         <v>7634</v>
       </c>
       <c r="B7634">
-        <v>44.41227826977893</v>
+        <v>44.41227826977892</v>
       </c>
     </row>
     <row r="7635" spans="1:2">
@@ -61431,7 +61431,7 @@
         <v>7636</v>
       </c>
       <c r="B7636">
-        <v>53.01274097033477</v>
+        <v>53.01274097033476</v>
       </c>
     </row>
     <row r="7637" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>5.499243583649216</v>
+        <v>5.499243583649215</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61599,7 +61599,7 @@
         <v>7657</v>
       </c>
       <c r="B7657">
-        <v>25.29267539275916</v>
+        <v>25.29267539275915</v>
       </c>
     </row>
     <row r="7658" spans="1:2">
@@ -61615,7 +61615,7 @@
         <v>7659</v>
       </c>
       <c r="B7659">
-        <v>35.0035256445951</v>
+        <v>35.00352564459509</v>
       </c>
     </row>
     <row r="7660" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>5.548069218690196</v>
+        <v>5.548069218690195</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>32.42537971749125</v>
+        <v>32.42537971749124</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61919,7 +61919,7 @@
         <v>7697</v>
       </c>
       <c r="B7697">
-        <v>1.327837469835664</v>
+        <v>1.327837469835663</v>
       </c>
     </row>
     <row r="7698" spans="1:2">
@@ -61951,7 +61951,7 @@
         <v>7701</v>
       </c>
       <c r="B7701">
-        <v>9.694789958917305</v>
+        <v>9.694789958917299</v>
       </c>
     </row>
     <row r="7702" spans="1:2">
@@ -61975,7 +61975,7 @@
         <v>7704</v>
       </c>
       <c r="B7704">
-        <v>19.51665552019817</v>
+        <v>19.51665552019816</v>
       </c>
     </row>
     <row r="7705" spans="1:2">
@@ -62015,7 +62015,7 @@
         <v>7709</v>
       </c>
       <c r="B7709">
-        <v>33.14105919390225</v>
+        <v>33.14105919390224</v>
       </c>
     </row>
     <row r="7710" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>1.293923289241773</v>
+        <v>1.293923289241772</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62207,7 +62207,7 @@
         <v>7733</v>
       </c>
       <c r="B7733">
-        <v>28.64362034170912</v>
+        <v>28.64362034170911</v>
       </c>
     </row>
     <row r="7734" spans="1:2">
@@ -62223,7 +62223,7 @@
         <v>7735</v>
       </c>
       <c r="B7735">
-        <v>30.37388244686183</v>
+        <v>30.37388244686182</v>
       </c>
     </row>
     <row r="7736" spans="1:2">
@@ -62239,7 +62239,7 @@
         <v>7737</v>
       </c>
       <c r="B7737">
-        <v>2.849283529231785</v>
+        <v>2.849283529231784</v>
       </c>
     </row>
     <row r="7738" spans="1:2">
@@ -62271,7 +62271,7 @@
         <v>7741</v>
       </c>
       <c r="B7741">
-        <v>4.274470405979588</v>
+        <v>4.274470405979587</v>
       </c>
     </row>
     <row r="7742" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>8.810184335821898</v>
+        <v>8.810184335821896</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>4.322006528450458</v>
+        <v>4.322006528450457</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62575,7 +62575,7 @@
         <v>7779</v>
       </c>
       <c r="B7779">
-        <v>19.88287709010939</v>
+        <v>19.88287709010938</v>
       </c>
     </row>
     <row r="7780" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>0.7480843411557903</v>
+        <v>0.7480843411557901</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>0.9015040991846178</v>
+        <v>0.9015040991846176</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -63007,7 +63007,7 @@
         <v>7833</v>
       </c>
       <c r="B7833">
-        <v>0.240142702150145</v>
+        <v>0.2401427021501449</v>
       </c>
     </row>
     <row r="7834" spans="1:2">
@@ -63175,7 +63175,7 @@
         <v>7854</v>
       </c>
       <c r="B7854">
-        <v>0.1365083868139134</v>
+        <v>0.1365083868139133</v>
       </c>
     </row>
     <row r="7855" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>0.3670392381090823</v>
+        <v>0.3670392381090822</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63527,7 +63527,7 @@
         <v>7898</v>
       </c>
       <c r="B7898">
-        <v>5.880470390739894</v>
+        <v>5.880470390739893</v>
       </c>
     </row>
     <row r="7899" spans="1:2">
@@ -63583,7 +63583,7 @@
         <v>7905</v>
       </c>
       <c r="B7905">
-        <v>2.930241472951595</v>
+        <v>2.930241472951594</v>
       </c>
     </row>
     <row r="7906" spans="1:2">
@@ -63615,7 +63615,7 @@
         <v>7909</v>
       </c>
       <c r="B7909">
-        <v>7.09615836621102</v>
+        <v>7.096158366211019</v>
       </c>
     </row>
     <row r="7910" spans="1:2">
@@ -63679,7 +63679,7 @@
         <v>7917</v>
       </c>
       <c r="B7917">
-        <v>4.155424950075349</v>
+        <v>4.155424950075348</v>
       </c>
     </row>
     <row r="7918" spans="1:2">
@@ -63687,7 +63687,7 @@
         <v>7918</v>
       </c>
       <c r="B7918">
-        <v>4.019674444967414</v>
+        <v>4.019674444967413</v>
       </c>
     </row>
     <row r="7919" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>1.388459214182763</v>
+        <v>1.388459214182762</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63831,7 +63831,7 @@
         <v>7936</v>
       </c>
       <c r="B7936">
-        <v>0.9761522234420492</v>
+        <v>0.976152223442049</v>
       </c>
     </row>
     <row r="7937" spans="1:2">
@@ -63935,7 +63935,7 @@
         <v>7949</v>
       </c>
       <c r="B7949">
-        <v>5.397899618480123</v>
+        <v>5.397899618480122</v>
       </c>
     </row>
     <row r="7950" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>0.483148122205934</v>
+        <v>0.4831481222059339</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -64127,7 +64127,7 @@
         <v>7973</v>
       </c>
       <c r="B7973">
-        <v>3.742312013978317</v>
+        <v>3.742312013978316</v>
       </c>
     </row>
     <row r="7974" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>0.2570197840535359</v>
+        <v>0.2570197840535358</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>42.15504513000925</v>
+        <v>42.15504513000924</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>7.125465470077154</v>
+        <v>7.125465470077153</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64767,7 +64767,7 @@
         <v>8053</v>
       </c>
       <c r="B8053">
-        <v>3.97398467004011</v>
+        <v>3.973984670040109</v>
       </c>
     </row>
     <row r="8054" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>3.111476603259771</v>
+        <v>3.11147660325977</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>6.938486147411216</v>
+        <v>6.938486147411215</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65071,7 +65071,7 @@
         <v>8091</v>
       </c>
       <c r="B8091">
-        <v>33.54110116167499</v>
+        <v>33.54110116167498</v>
       </c>
     </row>
     <row r="8092" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>2.34876801727478</v>
+        <v>2.348768017274779</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65223,7 +65223,7 @@
         <v>8110</v>
       </c>
       <c r="B8110">
-        <v>4.960051486720073</v>
+        <v>4.960051486720072</v>
       </c>
     </row>
     <row r="8111" spans="1:2">
@@ -65287,7 +65287,7 @@
         <v>8118</v>
       </c>
       <c r="B8118">
-        <v>39.37526632830639</v>
+        <v>39.37526632830638</v>
       </c>
     </row>
     <row r="8119" spans="1:2">
@@ -65335,7 +65335,7 @@
         <v>8124</v>
       </c>
       <c r="B8124">
-        <v>7.151050571752291</v>
+        <v>7.15105057175229</v>
       </c>
     </row>
     <row r="8125" spans="1:2">
@@ -65487,7 +65487,7 @@
         <v>8143</v>
       </c>
       <c r="B8143">
-        <v>54.87051828440904</v>
+        <v>54.87051828440903</v>
       </c>
     </row>
     <row r="8144" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>4.974822267068604</v>
+        <v>4.974822267068603</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65615,7 +65615,7 @@
         <v>8159</v>
       </c>
       <c r="B8159">
-        <v>36.08876770075806</v>
+        <v>36.08876770075805</v>
       </c>
     </row>
     <row r="8160" spans="1:2">
@@ -65647,7 +65647,7 @@
         <v>8163</v>
       </c>
       <c r="B8163">
-        <v>59.13001276031303</v>
+        <v>59.13001276031302</v>
       </c>
     </row>
     <row r="8164" spans="1:2">
@@ -65799,7 +65799,7 @@
         <v>8182</v>
       </c>
       <c r="B8182">
-        <v>50.08584050722392</v>
+        <v>50.08584050722391</v>
       </c>
     </row>
     <row r="8183" spans="1:2">
@@ -65975,7 +65975,7 @@
         <v>8204</v>
       </c>
       <c r="B8204">
-        <v>68.84004241324072</v>
+        <v>68.84004241324071</v>
       </c>
     </row>
     <row r="8205" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>52.9928121397058</v>
+        <v>52.99281213970579</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>53.59155627169093</v>
+        <v>53.59155627169092</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>10.5984451995257</v>
+        <v>10.59844519952569</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66167,7 +66167,7 @@
         <v>8228</v>
       </c>
       <c r="B8228">
-        <v>61.51971400955764</v>
+        <v>61.51971400955763</v>
       </c>
     </row>
     <row r="8229" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>48.89098988260161</v>
+        <v>48.8909898826016</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>51.42048601728768</v>
+        <v>51.42048601728767</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>8.854701826594557</v>
+        <v>8.854701826594555</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66487,7 +66487,7 @@
         <v>8268</v>
       </c>
       <c r="B8268">
-        <v>7.405055240960078</v>
+        <v>7.405055240960077</v>
       </c>
     </row>
     <row r="8269" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>5.423689869882321</v>
+        <v>5.42368986988232</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66551,7 +66551,7 @@
         <v>8276</v>
       </c>
       <c r="B8276">
-        <v>30.82872869886424</v>
+        <v>30.82872869886423</v>
       </c>
     </row>
     <row r="8277" spans="1:2">
@@ -66599,7 +66599,7 @@
         <v>8282</v>
       </c>
       <c r="B8282">
-        <v>48.32506970694655</v>
+        <v>48.32506970694654</v>
       </c>
     </row>
     <row r="8283" spans="1:2">
@@ -66711,7 +66711,7 @@
         <v>8296</v>
       </c>
       <c r="B8296">
-        <v>17.18471857267371</v>
+        <v>17.1847185726737</v>
       </c>
     </row>
     <row r="8297" spans="1:2">
@@ -66975,7 +66975,7 @@
         <v>8329</v>
       </c>
       <c r="B8329">
-        <v>66.38469325133597</v>
+        <v>66.38469325133596</v>
       </c>
     </row>
     <row r="8330" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>76.45813099220373</v>
+        <v>76.45813099220372</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>8.440738984485407</v>
+        <v>8.440738984485405</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>6.499114046250128</v>
+        <v>6.499114046250127</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>4.652209667710196</v>
+        <v>4.652209667710195</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>55.0361034212527</v>
+        <v>55.03610342125269</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67407,7 +67407,7 @@
         <v>8383</v>
       </c>
       <c r="B8383">
-        <v>54.04464409746137</v>
+        <v>54.04464409746136</v>
       </c>
     </row>
     <row r="8384" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>7.687399879606418</v>
+        <v>7.687399879606417</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67463,7 +67463,7 @@
         <v>8390</v>
       </c>
       <c r="B8390">
-        <v>5.2375604532285</v>
+        <v>5.237560453228499</v>
       </c>
     </row>
     <row r="8391" spans="1:2">
@@ -67471,7 +67471,7 @@
         <v>8391</v>
       </c>
       <c r="B8391">
-        <v>4.991556623376168</v>
+        <v>4.991556623376167</v>
       </c>
     </row>
     <row r="8392" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>4.989358590586208</v>
+        <v>4.989358590586207</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>7.771511267702224</v>
+        <v>7.771511267702223</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>39.5382138258021</v>
+        <v>39.53821382580209</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67775,7 +67775,7 @@
         <v>8429</v>
       </c>
       <c r="B8429">
-        <v>41.46720740227107</v>
+        <v>41.46720740227106</v>
       </c>
     </row>
     <row r="8430" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>2.846168184090815</v>
+        <v>2.846168184090814</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -67871,7 +67871,7 @@
         <v>8441</v>
       </c>
       <c r="B8441">
-        <v>1.540050208930344</v>
+        <v>1.540050208930343</v>
       </c>
     </row>
     <row r="8442" spans="1:2">
@@ -67999,7 +67999,7 @@
         <v>8457</v>
       </c>
       <c r="B8457">
-        <v>4.108650812304998</v>
+        <v>4.108650812304997</v>
       </c>
     </row>
     <row r="8458" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>3.321315466941294</v>
+        <v>3.321315466941293</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68079,7 +68079,7 @@
         <v>8467</v>
       </c>
       <c r="B8467">
-        <v>40.32071349902789</v>
+        <v>40.32071349902788</v>
       </c>
     </row>
     <row r="8468" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>34.20607934839758</v>
+        <v>34.20607934839757</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>39.43417360707732</v>
+        <v>39.43417360707731</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>8.332449235700039</v>
+        <v>8.332449235700038</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
@@ -68303,7 +68303,7 @@
         <v>8495</v>
       </c>
       <c r="B8495">
-        <v>38.03270790019877</v>
+        <v>38.03270790019876</v>
       </c>
     </row>
     <row r="8496" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>23.02157999286079</v>
+        <v>23.02157999286078</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68471,7 +68471,7 @@
         <v>8516</v>
       </c>
       <c r="B8516">
-        <v>58.65084161210173</v>
+        <v>58.65084161210172</v>
       </c>
     </row>
     <row r="8517" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>47.13051215336291</v>
+        <v>47.1305121533629</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68503,7 +68503,7 @@
         <v>8520</v>
       </c>
       <c r="B8520">
-        <v>54.28672077539564</v>
+        <v>54.28672077539563</v>
       </c>
     </row>
     <row r="8521" spans="1:2">
@@ -68527,7 +68527,7 @@
         <v>8523</v>
       </c>
       <c r="B8523">
-        <v>66.81257696778154</v>
+        <v>66.81257696778152</v>
       </c>
     </row>
     <row r="8524" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>78.27165457944014</v>
+        <v>78.27165457944012</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>64.86336148964493</v>
+        <v>64.86336148964492</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>51.03070153586809</v>
+        <v>51.03070153586808</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68815,7 +68815,7 @@
         <v>8559</v>
       </c>
       <c r="B8559">
-        <v>24.93594932450057</v>
+        <v>24.93594932450056</v>
       </c>
     </row>
     <row r="8560" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>65.88793784080499</v>
+        <v>65.88793784080498</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68903,7 +68903,7 @@
         <v>8570</v>
       </c>
       <c r="B8570">
-        <v>71.10782611040221</v>
+        <v>71.1078261104022</v>
       </c>
     </row>
     <row r="8571" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>79.79298634113118</v>
+        <v>79.79298634113117</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>33.18208913931484</v>
+        <v>33.18208913931483</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>83.56363832454805</v>
+        <v>83.56363832454804</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>51.83342311076152</v>
+        <v>51.83342311076151</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69071,7 +69071,7 @@
         <v>8591</v>
       </c>
       <c r="B8591">
-        <v>54.81659321329535</v>
+        <v>54.81659321329534</v>
       </c>
     </row>
     <row r="8592" spans="1:2">
@@ -69111,7 +69111,7 @@
         <v>8596</v>
       </c>
       <c r="B8596">
-        <v>75.35735617099172</v>
+        <v>75.35735617099171</v>
       </c>
     </row>
     <row r="8597" spans="1:2">
@@ -69127,7 +69127,7 @@
         <v>8598</v>
       </c>
       <c r="B8598">
-        <v>79.28568037320839</v>
+        <v>79.28568037320838</v>
       </c>
     </row>
     <row r="8599" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>77.7875012235716</v>
+        <v>77.78750122357158</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69399,7 +69399,7 @@
         <v>8632</v>
       </c>
       <c r="B8632">
-        <v>11.99923684301533</v>
+        <v>11.99923684301532</v>
       </c>
     </row>
     <row r="8633" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>55.6729467882638</v>
+        <v>55.67294678826379</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69535,7 +69535,7 @@
         <v>8649</v>
       </c>
       <c r="B8649">
-        <v>7.966022516061759</v>
+        <v>7.966022516061758</v>
       </c>
     </row>
     <row r="8650" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>6.112846417294475</v>
+        <v>6.112846417294474</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69607,7 +69607,7 @@
         <v>8658</v>
       </c>
       <c r="B8658">
-        <v>4.801617283219749</v>
+        <v>4.801617283219748</v>
       </c>
     </row>
     <row r="8659" spans="1:2">
@@ -69679,7 +69679,7 @@
         <v>8667</v>
       </c>
       <c r="B8667">
-        <v>43.52280766744175</v>
+        <v>43.52280766744174</v>
       </c>
     </row>
     <row r="8668" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>38.86327122376502</v>
+        <v>38.86327122376501</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>5.850489223484838</v>
+        <v>5.850489223484837</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>4.261194287928229</v>
+        <v>4.261194287928228</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>0.9281735637028002</v>
+        <v>0.9281735637028</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
@@ -70255,7 +70255,7 @@
         <v>8739</v>
       </c>
       <c r="B8739">
-        <v>29.44895024884662</v>
+        <v>29.44895024884661</v>
       </c>
     </row>
     <row r="8740" spans="1:2">
@@ -70287,7 +70287,7 @@
         <v>8743</v>
       </c>
       <c r="B8743">
-        <v>46.25891888438407</v>
+        <v>46.25891888438406</v>
       </c>
     </row>
     <row r="8744" spans="1:2">
@@ -70303,7 +70303,7 @@
         <v>8745</v>
       </c>
       <c r="B8745">
-        <v>6.348387611066597</v>
+        <v>6.348387611066596</v>
       </c>
     </row>
     <row r="8746" spans="1:2">
@@ -70359,7 +70359,7 @@
         <v>8752</v>
       </c>
       <c r="B8752">
-        <v>6.592838164414026</v>
+        <v>6.592838164414025</v>
       </c>
     </row>
     <row r="8753" spans="1:2">
